--- a/Results/General_results.xlsx
+++ b/Results/General_results.xlsx
@@ -21,9 +21,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Estrategia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC Drone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time threshold = 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAD-TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold  = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time =100; Evap factor = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES-TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time =100; Evap factor = 0.1; Time threshold = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAD-ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUAD-ES-TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1; Threshold  = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold  = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero Drones</t>
   </si>
   <si>
     <t xml:space="preserve">Media Qmi</t>
@@ -36,93 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Media Manobras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parametros utilizados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nc Drone Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant Strategy type A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Strategy Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time threshold = 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Time(normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threshold  = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Strategy Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time =100; Evap factor = 0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Normal + Time Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time =100; Evap factor = 0.1; Time threshold = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evap (normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evap + time (normal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 100; Evap factor = 0.1; Threshold  = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Strategy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threshold  = 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation Strategy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaporation + Time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.32; Threshold  = 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evap + Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 5; Evap factor = 0.32;Threshold = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quadrant  type A + Evaporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evap time = 1; Evap factor = 0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero Drones</t>
   </si>
 </sst>
 </file>
@@ -317,26 +308,25 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>10k!$F$1:$F$1</c:f>
+              <c:f>Planilha2!$B$1:$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Media Manobras</c:v>
+                  <c:v>Media Qmi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -345,14 +335,19 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -362,95 +357,78 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$12</c:f>
+              <c:f>Planilha2!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Nc Drone Normal</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quadrant Strategy type A</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Time Strategy Normal</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Quadrant  type A + Time(normal)</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Evaporation Strategy Normal</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Evaporation Normal + Time Normal</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Quadrant  type A + Evap (normal)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Quadrant  type A + Evap + time (normal)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$F$2:$F$12</c:f>
+              <c:f>Planilha2!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5551.56666666667</c:v>
+                  <c:v>750.126609115248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6166.66666666667</c:v>
+                  <c:v>613.897109257333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5158.36666666667</c:v>
+                  <c:v>515.3024135604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6759</c:v>
+                  <c:v>442.264149117117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10720.7</c:v>
+                  <c:v>389.43686828644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10685.7333333333</c:v>
+                  <c:v>348.733413416514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11527.5333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
+                  <c:v>314.528723367342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="7467695"/>
-        <c:axId val="47789388"/>
-      </c:barChart>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="68584167"/>
+        <c:axId val="16666032"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="7467695"/>
+        <c:axId val="68584167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,14 +456,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47789388"/>
+        <c:crossAx val="16666032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47789388"/>
+        <c:axId val="16666032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,246 +500,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7467695"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$B$1:$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media Qmi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha2!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>750.126609115248</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>613.897109257333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>515.3024135604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>442.264149117117</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>389.43686828644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348.733413416514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314.528723367342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="48552281"/>
-        <c:axId val="53995506"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="48552281"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53995506"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="53995506"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48552281"/>
+        <c:crossAx val="68584167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -813,16 +552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>716400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5685120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>780840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -830,43 +569,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10039680" y="4333320"/>
-        <a:ext cx="5757120" cy="3230280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>716400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>781560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
         <a:off x="10184040" y="1618920"/>
-        <a:ext cx="5754960" cy="3231720"/>
+        <a:ext cx="5754240" cy="3231000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -887,7 +591,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1157,6 +861,9 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1166,7 +873,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>727.456435146107</v>
@@ -1192,7 +899,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>717.596568259907</v>
@@ -1218,7 +925,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>678.820674056799</v>
@@ -1239,12 +946,12 @@
         <v>133.042681769475</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>678.740684474531</v>
@@ -1265,85 +972,59 @@
         <v>117.659791079118</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>633.881573172315</v>
+        <v>631.324910137899</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.43259607445784</v>
+        <v>8.0904035289663</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.900503970180071</v>
+        <v>0.903325084617783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0460154362025134</v>
+        <v>0.0522398133969506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7373.56666666667</v>
+        <v>6980.8</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1129.6664958978</v>
+        <v>1022.79129229096</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>631.324910137899</v>
+        <v>612.636025822038</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>8.0904035289663</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.903325084617783</v>
+        <v>0.813384435553089</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.0522398133969506</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6980.8</v>
+        <v>4422</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1022.79129229096</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>612.636025822038</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0.813384435553089</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>4422</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1359,7 +1040,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1387,25 +1067,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
